--- a/使うデータ.xlsx
+++ b/使うデータ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nasutaro211/Desktop/jphacks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syoui/Desktop/JPhacks 2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>最高</t>
     <rPh sb="0" eb="2">
@@ -96,6 +96,13 @@
     <t>21~24温度</t>
     <rPh sb="5" eb="7">
       <t>オンd</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <rPh sb="0" eb="2">
+      <t>シツd</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -429,38 +436,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>17</v>
       </c>
@@ -468,25 +484,34 @@
         <v>14.6</v>
       </c>
       <c r="D3">
+        <v>94</v>
+      </c>
+      <c r="E3">
         <v>16.600000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>84</v>
+      </c>
+      <c r="G3">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>18</v>
       </c>
@@ -494,25 +519,34 @@
         <v>16.5</v>
       </c>
       <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="E4">
         <v>19.7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
         <v>16.899999999999999</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>20.8</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>12.7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>19</v>
       </c>
@@ -520,21 +554,30 @@
         <v>13.4</v>
       </c>
       <c r="D5">
+        <v>92</v>
+      </c>
+      <c r="E5">
         <v>15.5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>91</v>
+      </c>
+      <c r="G5">
         <v>15.2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>15.9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>12.9</v>
       </c>
     </row>

--- a/使うデータ.xlsx
+++ b/使うデータ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syoui/Desktop/JPhacks 2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nasutaro211/Desktop/jphacks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>最高</t>
     <rPh sb="0" eb="2">
@@ -103,6 +103,34 @@
     <t>湿度</t>
     <rPh sb="0" eb="2">
       <t>シツd</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <rPh sb="2" eb="3">
+      <t>ガt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15~18天気</t>
+    <rPh sb="5" eb="7">
+      <t>テンk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18~21天気</t>
+    <rPh sb="5" eb="7">
+      <t>t</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21~24天気</t>
+    <rPh sb="5" eb="7">
+      <t>t</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -436,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L5"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -469,14 +497,26 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3">
         <v>17</v>
       </c>
@@ -504,14 +544,23 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>18</v>
       </c>
@@ -539,14 +588,23 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
         <v>20.8</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>12.7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>19</v>
       </c>
@@ -574,10 +632,19 @@
       <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
         <v>15.9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>12.9</v>
       </c>
     </row>
